--- a/analysis/data/general_funds/offset/overview.xlsx
+++ b/analysis/data/general_funds/offset/overview.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dabinlee\Documents\GitHub\mwdsbe_binny\MWDSBE\analysis\data\general_funds\offset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F6F6FE-B0AF-4872-9BF6-7AEB1FB8CC20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BAE1FA-F387-47F5-9AFD-E11CAD2F2862}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="1965" windowWidth="21600" windowHeight="11400" xr2:uid="{06615ACA-559F-4211-8CB7-497095684BEC}"/>
+    <workbookView xWindow="1425" yWindow="2040" windowWidth="21600" windowHeight="11400" activeTab="1" xr2:uid="{06615ACA-559F-4211-8CB7-497095684BEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Matching" sheetId="1" r:id="rId1"/>
+    <sheet name="Filtered" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Matching</t>
   </si>
@@ -60,14 +61,29 @@
     <t>Fuzz95 + TFIDF80</t>
   </si>
   <si>
-    <t>9 + 5(ambiguous)</t>
+    <t>Matches to consider</t>
+  </si>
+  <si>
+    <t>9 + 5(ambiguous) = 14</t>
+  </si>
+  <si>
+    <t>Fuzz95 + TFIDF80 - 14 wrong matches</t>
+  </si>
+  <si>
+    <t>Full Matches (w/ all funds)</t>
+  </si>
+  <si>
+    <t>Unique Vendors in Philly</t>
+  </si>
+  <si>
+    <t>All funds in Philly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,22 +98,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,16 +109,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,25 +121,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -164,13 +150,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B51D288D-9DDA-48D4-984D-066263247D05}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{EBA907DB-3A97-4E10-8A91-056421563109}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B51D288D-9DDA-48D4-984D-066263247D05}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{EBA907DB-3A97-4E10-8A91-056421563109}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FF80886D-0D59-4433-A59A-F75EC7DA082D}" name="Matching"/>
     <tableColumn id="4" xr3:uid="{AD18B86C-4036-4904-8A2F-535086CF3190}" name="Total Matches"/>
     <tableColumn id="2" xr3:uid="{287F1977-2BE9-477B-A1B0-A646CA667914}" name="Wrong Matches"/>
+    <tableColumn id="6" xr3:uid="{77C2896A-E5F3-455C-A17C-81B799C468B5}" name="Matches to consider"/>
     <tableColumn id="3" xr3:uid="{27AE7D16-6578-40CB-91AD-2FDFCAF47DF5}" name="Highest score_cutoff"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8EBED5B-25D0-431B-B6DF-72C1741B963D}" name="Table2" displayName="Table2" ref="A1:E3" totalsRowShown="0">
+  <autoFilter ref="A1:E3" xr:uid="{A3037883-D4EE-4907-8E60-417B2AEFC419}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F70CEAC8-E8F3-42F3-A872-81860D5D9A40}" name="Matching"/>
+    <tableColumn id="2" xr3:uid="{2C7EBB0D-6002-4226-B434-5C1A37E230BE}" name="Total Matches"/>
+    <tableColumn id="3" xr3:uid="{C00DE7C8-3F30-4940-8E64-3DD6E5D116B2}" name="Full Matches (w/ all funds)"/>
+    <tableColumn id="4" xr3:uid="{6C8EE645-9BDB-49D0-9F89-027DEC9676DB}" name="Unique Vendors in Philly"/>
+    <tableColumn id="5" xr3:uid="{5B4ED370-F586-4A96-8D48-512297430B25}" name="All funds in Philly"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -473,21 +474,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49E98E9-C5AB-4482-93A3-8F2B0FB709AA}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="3" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,24 +499,30 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <v>150</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.91606089238277255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>136</v>
+      </c>
+      <c r="E2">
+        <v>0.92302667247574666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -525,11 +532,14 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
+        <v>132</v>
+      </c>
+      <c r="E3">
         <v>0.91261228937161221</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -539,11 +549,14 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
+        <v>127</v>
+      </c>
+      <c r="E4">
         <v>0.91261228937161221</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -553,16 +566,92 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>127</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91C6416-F151-4008-94E2-A2901C3659E9}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>127</v>
+      </c>
+      <c r="D2">
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>136</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5661</v>
+      </c>
+      <c r="D3" s="1">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2720</v>
       </c>
     </row>
   </sheetData>
